--- a/Data/EC/NIT-9014089051.xlsx
+++ b/Data/EC/NIT-9014089051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2044D2B9-34B0-4EB5-9BD6-9A2F3DE50FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F42CB037-40BD-4B20-900F-B80C7DC6CF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39916AD5-D0A7-4FF1-9C51-73234B43B3BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CFF99A13-9E51-438D-91B5-7DF8D136E539}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,6 +71,24 @@
     <t>JESICA RODRIGUEZ TEHERAN</t>
   </si>
   <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
     <t>2305</t>
   </si>
   <si>
@@ -80,22 +98,16 @@
     <t>LESLY PATRICIA SALCEDO SAMPAYO</t>
   </si>
   <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
+    <t>1143385979</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO GARCIA HEREDIA</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A4E26F-1278-9F8F-BBB6-8509FFD2C12E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7B8ED5-E2C4-031D-B080-4ED226E996B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +872,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F452441B-B307-4E78-A112-9C43DFB6201A}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D591C37-B0BD-4F5A-AFF3-BA60380C0C0B}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -885,7 +897,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +942,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +974,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>637440</v>
+        <v>710122</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +990,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1038,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>37333</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1052,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1075,13 +1087,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1144,13 +1156,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1173,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1190,16 +1202,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>43307</v>
       </c>
       <c r="G23" s="18">
         <v>1160000</v>
@@ -1213,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1236,13 +1248,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1259,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1282,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1305,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>37333</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
         <v>1160000</v>
@@ -1324,56 +1336,102 @@
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="22" t="s">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="24">
-        <v>43307</v>
-      </c>
-      <c r="G29" s="24">
+      <c r="E29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G29" s="18">
         <v>1160000</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G30" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G31" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014089051.xlsx
+++ b/Data/EC/NIT-9014089051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F42CB037-40BD-4B20-900F-B80C7DC6CF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CE6EAE9-6139-43A9-8E23-2131612F975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CFF99A13-9E51-438D-91B5-7DF8D136E539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8D9CAAB5-6DFD-46AF-8790-4F93253B8711}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,43 +71,31 @@
     <t>JESICA RODRIGUEZ TEHERAN</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>45563613</t>
+  </si>
+  <si>
+    <t>LESLY PATRICIA SALCEDO SAMPAYO</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>45563613</t>
-  </si>
-  <si>
-    <t>LESLY PATRICIA SALCEDO SAMPAYO</t>
-  </si>
-  <si>
-    <t>1143385979</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO GARCIA HEREDIA</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +194,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +209,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7B8ED5-E2C4-031D-B080-4ED226E996B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C710D4-812C-0E8B-4287-C21A4A278BCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D591C37-B0BD-4F5A-AFF3-BA60380C0C0B}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E13E36B-3617-4467-ACE8-3888D5C1ECB2}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -897,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -942,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -974,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>710122</v>
+        <v>637440</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -990,17 +978,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1027,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1050,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37333</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1064,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1093,13 +1081,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1145,7 +1133,7 @@
         <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1156,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1185,13 +1173,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1202,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>43307</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
         <v>1160000</v>
@@ -1225,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1248,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1271,19 +1259,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1294,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1317,121 +1305,75 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>37333</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="F29" s="24">
+        <v>43307</v>
+      </c>
+      <c r="G29" s="24">
         <v>1160000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G30" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G31" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
